--- a/data/3ESO_GeH.xlsx
+++ b/data/3ESO_GeH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\SABERES_MULTI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1F8D14-235E-45D6-A91F-8CDE76C799CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92754E18-1723-41C6-8794-94908C3D05CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="16524" activeTab="1" xr2:uid="{B244700E-4640-49A4-95C9-B0BAD516B56B}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="16524" activeTab="3" xr2:uid="{B244700E-4640-49A4-95C9-B0BAD516B56B}"/>
   </bookViews>
   <sheets>
     <sheet name="SSBB" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="213">
   <si>
     <t>Saber Básico</t>
   </si>
@@ -527,9 +527,6 @@
     <t>1, 2, 3</t>
   </si>
   <si>
-    <t>1.2, 1.3, 2.1</t>
-  </si>
-  <si>
     <t>2, 4</t>
   </si>
   <si>
@@ -621,6 +618,60 @@
   </si>
   <si>
     <t>Reconocer movimientos y causas que generen una conciencia solidaria, promuevan la cohesión social, y trabajen para la eliminación de la desigualdad, especialmente la motivada por cuestión de género, y el pleno desarrollo de la ciudadanía, mediante el trabajo en equipo, la mediación y resolución pacífica de conflictos.</t>
+  </si>
+  <si>
+    <t>5.2, 9.1</t>
+  </si>
+  <si>
+    <t>1.1, 1.2, 1.3, 2.1, 3.1</t>
+  </si>
+  <si>
+    <t>2.1, 4.1</t>
+  </si>
+  <si>
+    <t>5.2, 6.1, 8.1</t>
+  </si>
+  <si>
+    <t>6.1, 7.1</t>
+  </si>
+  <si>
+    <t>2.1, 3.4, 7.1</t>
+  </si>
+  <si>
+    <t>4.2, 6.1</t>
+  </si>
+  <si>
+    <t>4.2, 6.1, 8.1</t>
+  </si>
+  <si>
+    <t>5.1, 9.1</t>
+  </si>
+  <si>
+    <t>4.1, 7.2</t>
+  </si>
+  <si>
+    <t>3.2, 4.2</t>
+  </si>
+  <si>
+    <t>6.2, 8.1</t>
+  </si>
+  <si>
+    <t>5.1, 5.2, 8.2</t>
+  </si>
+  <si>
+    <t>6.2, 8.2</t>
+  </si>
+  <si>
+    <t>7.2, 9.2</t>
+  </si>
+  <si>
+    <t>5.1, 5.2, 9.2</t>
+  </si>
+  <si>
+    <t>8.1, 8.2</t>
+  </si>
+  <si>
+    <t>9.1, 9.2</t>
   </si>
 </sst>
 </file>
@@ -991,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060C5F45-2513-4FE2-9E5F-4522DCE77359}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88901DAE-FA95-4BF5-89EC-987FE073A9E7}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1345,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1302,7 +1353,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,7 +1361,7 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1318,7 +1369,7 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,7 +1377,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1334,7 +1385,7 @@
         <v>3.1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1393,7 @@
         <v>3.2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1350,7 +1401,7 @@
         <v>3.3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1409,7 @@
         <v>3.4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1366,7 +1417,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1425,7 @@
         <v>4.2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,7 +1433,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1390,7 +1441,7 @@
         <v>5.2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1449,7 @@
         <v>6.1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,7 +1457,7 @@
         <v>6.2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,7 +1465,7 @@
         <v>7.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1473,7 @@
         <v>7.2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1430,7 +1481,7 @@
         <v>8.1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1438,7 +1489,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1446,7 +1497,7 @@
         <v>9.1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1454,7 +1505,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1801,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67914FC9-DE15-48F2-A6C0-03CCA86EF680}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,7 +1904,7 @@
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1861,10 +1912,10 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5">
-        <v>4.0999999999999996</v>
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1907,6 +1958,9 @@
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1915,8 +1969,8 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
-        <v>7.1</v>
+      <c r="C10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,7 +1978,10 @@
         <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1954,7 +2011,10 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1962,7 +2022,10 @@
         <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1970,10 +2033,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16">
-        <v>9.1</v>
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1983,16 +2046,19 @@
       <c r="B17">
         <v>9</v>
       </c>
+      <c r="C17">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18">
-        <v>5.0999999999999996</v>
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2000,93 +2066,117 @@
         <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19">
-        <v>7.2</v>
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28">
-        <v>6.2</v>
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
       </c>
       <c r="C29">
         <v>8.1999999999999993</v>
@@ -2094,26 +2184,35 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
+        <v>158</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>7.2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
